--- a/user-data/govtspend-pc/govtspend-pc.xlsx
+++ b/user-data/govtspend-pc/govtspend-pc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
   <si>
     <t>id</t>
   </si>
@@ -1213,9 +1213,6 @@
     <t>Source: Development Initiatives calculations based on IMF World Economic Outlook, OECD DAC and World Bank</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1601,42 +1598,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15">
@@ -1652,11 +1649,6 @@
     <row r="17">
       <c r="A17" t="s">
         <v>406</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/govtspend-pc/govtspend-pc.xlsx
+++ b/user-data/govtspend-pc/govtspend-pc.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1222,7 +1222,7 @@
     <t>Calculated from IMF WEO data on government spending as a proportion of GDP. Receipts of general budget support ODA and disbursements on public debt are subtracted from total government spending before dividing by the population, to avoid double counting when comparing with international resource flows.</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/govtspend-pc/govtspend-pc.xlsx
+++ b/user-data/govtspend-pc/govtspend-pc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="408">
   <si>
     <t>id</t>
   </si>
@@ -1228,7 +1228,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1651,6 +1654,11 @@
         <v>406</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>407</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/govtspend-pc/govtspend-pc.xlsx
+++ b/user-data/govtspend-pc/govtspend-pc.xlsx
@@ -55,7 +55,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -151,7 +151,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -188,12 +188,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -266,6 +260,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -871,7 +871,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -889,7 +889,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1057,7 +1057,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1096,16 +1096,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1237,7 +1237,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -6546,7 +6546,7 @@
         <v>2000</v>
       </c>
       <c r="D353" t="n">
-        <v>532.75</v>
+        <v>205.82</v>
       </c>
     </row>
     <row r="354">
@@ -6560,7 +6560,7 @@
         <v>2001</v>
       </c>
       <c r="D354" t="n">
-        <v>479.53</v>
+        <v>219.19</v>
       </c>
     </row>
     <row r="355">
@@ -6574,7 +6574,7 @@
         <v>2002</v>
       </c>
       <c r="D355" t="n">
-        <v>489.94</v>
+        <v>243.21</v>
       </c>
     </row>
     <row r="356">
@@ -6588,7 +6588,7 @@
         <v>2003</v>
       </c>
       <c r="D356" t="n">
-        <v>525.54</v>
+        <v>245.3</v>
       </c>
     </row>
     <row r="357">
@@ -6602,7 +6602,7 @@
         <v>2004</v>
       </c>
       <c r="D357" t="n">
-        <v>539.74</v>
+        <v>242.04</v>
       </c>
     </row>
     <row r="358">
@@ -6616,7 +6616,7 @@
         <v>2005</v>
       </c>
       <c r="D358" t="n">
-        <v>529.4</v>
+        <v>241.29</v>
       </c>
     </row>
     <row r="359">
@@ -6630,7 +6630,7 @@
         <v>2006</v>
       </c>
       <c r="D359" t="n">
-        <v>545.26</v>
+        <v>276.6</v>
       </c>
     </row>
     <row r="360">
@@ -6644,7 +6644,7 @@
         <v>2007</v>
       </c>
       <c r="D360" t="n">
-        <v>540.77</v>
+        <v>331.57</v>
       </c>
     </row>
     <row r="361">
@@ -6658,7 +6658,7 @@
         <v>2008</v>
       </c>
       <c r="D361" t="n">
-        <v>564.98</v>
+        <v>380.6</v>
       </c>
     </row>
     <row r="362">
@@ -6672,7 +6672,7 @@
         <v>2009</v>
       </c>
       <c r="D362" t="n">
-        <v>532.8</v>
+        <v>482.4</v>
       </c>
     </row>
     <row r="363">
@@ -6686,7 +6686,7 @@
         <v>2010</v>
       </c>
       <c r="D363" t="n">
-        <v>589.71</v>
+        <v>499.54</v>
       </c>
     </row>
     <row r="364">
@@ -6700,7 +6700,7 @@
         <v>2011</v>
       </c>
       <c r="D364" t="n">
-        <v>580.95</v>
+        <v>519.37</v>
       </c>
     </row>
     <row r="365">
@@ -6714,7 +6714,7 @@
         <v>2012</v>
       </c>
       <c r="D365" t="n">
-        <v>635.32</v>
+        <v>577.39</v>
       </c>
     </row>
     <row r="366">
@@ -6728,7 +6728,7 @@
         <v>2000</v>
       </c>
       <c r="D366" t="n">
-        <v>205.82</v>
+        <v>380.07</v>
       </c>
     </row>
     <row r="367">
@@ -6742,7 +6742,7 @@
         <v>2001</v>
       </c>
       <c r="D367" t="n">
-        <v>219.19</v>
+        <v>394.19</v>
       </c>
     </row>
     <row r="368">
@@ -6756,7 +6756,7 @@
         <v>2002</v>
       </c>
       <c r="D368" t="n">
-        <v>243.21</v>
+        <v>361.59</v>
       </c>
     </row>
     <row r="369">
@@ -6770,7 +6770,7 @@
         <v>2003</v>
       </c>
       <c r="D369" t="n">
-        <v>245.3</v>
+        <v>364.57</v>
       </c>
     </row>
     <row r="370">
@@ -6784,7 +6784,7 @@
         <v>2004</v>
       </c>
       <c r="D370" t="n">
-        <v>242.04</v>
+        <v>385.64</v>
       </c>
     </row>
     <row r="371">
@@ -6798,7 +6798,7 @@
         <v>2005</v>
       </c>
       <c r="D371" t="n">
-        <v>241.29</v>
+        <v>351.48</v>
       </c>
     </row>
     <row r="372">
@@ -6812,7 +6812,7 @@
         <v>2006</v>
       </c>
       <c r="D372" t="n">
-        <v>276.6</v>
+        <v>337.14</v>
       </c>
     </row>
     <row r="373">
@@ -6826,7 +6826,7 @@
         <v>2007</v>
       </c>
       <c r="D373" t="n">
-        <v>331.57</v>
+        <v>379.89</v>
       </c>
     </row>
     <row r="374">
@@ -6840,7 +6840,7 @@
         <v>2008</v>
       </c>
       <c r="D374" t="n">
-        <v>380.6</v>
+        <v>442.1</v>
       </c>
     </row>
     <row r="375">
@@ -6854,7 +6854,7 @@
         <v>2009</v>
       </c>
       <c r="D375" t="n">
-        <v>482.4</v>
+        <v>434.81</v>
       </c>
     </row>
     <row r="376">
@@ -6868,7 +6868,7 @@
         <v>2010</v>
       </c>
       <c r="D376" t="n">
-        <v>499.54</v>
+        <v>455.31</v>
       </c>
     </row>
     <row r="377">
@@ -6882,7 +6882,7 @@
         <v>2011</v>
       </c>
       <c r="D377" t="n">
-        <v>519.37</v>
+        <v>535.9</v>
       </c>
     </row>
     <row r="378">
@@ -6896,7 +6896,7 @@
         <v>2012</v>
       </c>
       <c r="D378" t="n">
-        <v>577.39</v>
+        <v>521.08</v>
       </c>
     </row>
     <row r="379">
@@ -6910,7 +6910,7 @@
         <v>2000</v>
       </c>
       <c r="D379" t="n">
-        <v>380.07</v>
+        <v>15950.55</v>
       </c>
     </row>
     <row r="380">
@@ -6924,7 +6924,7 @@
         <v>2001</v>
       </c>
       <c r="D380" t="n">
-        <v>394.19</v>
+        <v>16343.53</v>
       </c>
     </row>
     <row r="381">
@@ -6938,7 +6938,7 @@
         <v>2002</v>
       </c>
       <c r="D381" t="n">
-        <v>361.59</v>
+        <v>16286.21</v>
       </c>
     </row>
     <row r="382">
@@ -6952,7 +6952,7 @@
         <v>2003</v>
       </c>
       <c r="D382" t="n">
-        <v>364.57</v>
+        <v>16517.05</v>
       </c>
     </row>
     <row r="383">
@@ -6966,7 +6966,7 @@
         <v>2004</v>
       </c>
       <c r="D383" t="n">
-        <v>385.64</v>
+        <v>16310.27</v>
       </c>
     </row>
     <row r="384">
@@ -6980,7 +6980,7 @@
         <v>2005</v>
       </c>
       <c r="D384" t="n">
-        <v>351.48</v>
+        <v>16782.92</v>
       </c>
     </row>
     <row r="385">
@@ -6994,7 +6994,7 @@
         <v>2006</v>
       </c>
       <c r="D385" t="n">
-        <v>337.14</v>
+        <v>16970.86</v>
       </c>
     </row>
     <row r="386">
@@ -7008,7 +7008,7 @@
         <v>2007</v>
       </c>
       <c r="D386" t="n">
-        <v>379.89</v>
+        <v>17124.14</v>
       </c>
     </row>
     <row r="387">
@@ -7022,7 +7022,7 @@
         <v>2008</v>
       </c>
       <c r="D387" t="n">
-        <v>442.1</v>
+        <v>17290.6</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>2009</v>
       </c>
       <c r="D388" t="n">
-        <v>434.81</v>
+        <v>18357.87</v>
       </c>
     </row>
     <row r="389">
@@ -7050,7 +7050,7 @@
         <v>2010</v>
       </c>
       <c r="D389" t="n">
-        <v>455.31</v>
+        <v>18755.12</v>
       </c>
     </row>
     <row r="390">
@@ -7064,7 +7064,7 @@
         <v>2011</v>
       </c>
       <c r="D390" t="n">
-        <v>535.9</v>
+        <v>18432.72</v>
       </c>
     </row>
     <row r="391">
@@ -7078,7 +7078,7 @@
         <v>2012</v>
       </c>
       <c r="D391" t="n">
-        <v>521.08</v>
+        <v>18133.44</v>
       </c>
     </row>
     <row r="392">
@@ -7091,9 +7091,7 @@
       <c r="C392" t="n">
         <v>2000</v>
       </c>
-      <c r="D392" t="n">
-        <v>15950.55</v>
-      </c>
+      <c r="D392"/>
     </row>
     <row r="393">
       <c r="A393" t="s">
@@ -7105,9 +7103,7 @@
       <c r="C393" t="n">
         <v>2001</v>
       </c>
-      <c r="D393" t="n">
-        <v>16343.53</v>
-      </c>
+      <c r="D393"/>
     </row>
     <row r="394">
       <c r="A394" t="s">
@@ -7120,7 +7116,7 @@
         <v>2002</v>
       </c>
       <c r="D394" t="n">
-        <v>16286.21</v>
+        <v>1313.55</v>
       </c>
     </row>
     <row r="395">
@@ -7134,7 +7130,7 @@
         <v>2003</v>
       </c>
       <c r="D395" t="n">
-        <v>16517.05</v>
+        <v>1037.37</v>
       </c>
     </row>
     <row r="396">
@@ -7148,7 +7144,7 @@
         <v>2004</v>
       </c>
       <c r="D396" t="n">
-        <v>16310.27</v>
+        <v>1270.85</v>
       </c>
     </row>
     <row r="397">
@@ -7162,7 +7158,7 @@
         <v>2005</v>
       </c>
       <c r="D397" t="n">
-        <v>16782.92</v>
+        <v>1393.96</v>
       </c>
     </row>
     <row r="398">
@@ -7176,7 +7172,7 @@
         <v>2006</v>
       </c>
       <c r="D398" t="n">
-        <v>16970.86</v>
+        <v>1537.36</v>
       </c>
     </row>
     <row r="399">
@@ -7190,7 +7186,7 @@
         <v>2007</v>
       </c>
       <c r="D399" t="n">
-        <v>17124.14</v>
+        <v>1504.32</v>
       </c>
     </row>
     <row r="400">
@@ -7204,7 +7200,7 @@
         <v>2008</v>
       </c>
       <c r="D400" t="n">
-        <v>17290.6</v>
+        <v>1633.67</v>
       </c>
     </row>
     <row r="401">
@@ -7218,7 +7214,7 @@
         <v>2009</v>
       </c>
       <c r="D401" t="n">
-        <v>18357.87</v>
+        <v>1842.3</v>
       </c>
     </row>
     <row r="402">
@@ -7232,7 +7228,7 @@
         <v>2010</v>
       </c>
       <c r="D402" t="n">
-        <v>18755.12</v>
+        <v>2190.68</v>
       </c>
     </row>
     <row r="403">
@@ -7246,7 +7242,7 @@
         <v>2011</v>
       </c>
       <c r="D403" t="n">
-        <v>18432.72</v>
+        <v>2034.63</v>
       </c>
     </row>
     <row r="404">
@@ -7260,7 +7256,7 @@
         <v>2012</v>
       </c>
       <c r="D404" t="n">
-        <v>18133.44</v>
+        <v>2047.77</v>
       </c>
     </row>
     <row r="405">
@@ -7273,7 +7269,9 @@
       <c r="C405" t="n">
         <v>2000</v>
       </c>
-      <c r="D405"/>
+      <c r="D405" t="n">
+        <v>116.57</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="s">
@@ -7285,7 +7283,9 @@
       <c r="C406" t="n">
         <v>2001</v>
       </c>
-      <c r="D406"/>
+      <c r="D406" t="n">
+        <v>100.76</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="s">
@@ -7298,7 +7298,7 @@
         <v>2002</v>
       </c>
       <c r="D407" t="n">
-        <v>1313.55</v>
+        <v>122.66</v>
       </c>
     </row>
     <row r="408">
@@ -7312,7 +7312,7 @@
         <v>2003</v>
       </c>
       <c r="D408" t="n">
-        <v>1037.37</v>
+        <v>88.27</v>
       </c>
     </row>
     <row r="409">
@@ -7326,7 +7326,7 @@
         <v>2004</v>
       </c>
       <c r="D409" t="n">
-        <v>1270.85</v>
+        <v>86.62</v>
       </c>
     </row>
     <row r="410">
@@ -7340,7 +7340,7 @@
         <v>2005</v>
       </c>
       <c r="D410" t="n">
-        <v>1393.96</v>
+        <v>115.12</v>
       </c>
     </row>
     <row r="411">
@@ -7354,7 +7354,7 @@
         <v>2006</v>
       </c>
       <c r="D411" t="n">
-        <v>1537.36</v>
+        <v>99.64</v>
       </c>
     </row>
     <row r="412">
@@ -7368,7 +7368,7 @@
         <v>2007</v>
       </c>
       <c r="D412" t="n">
-        <v>1504.32</v>
+        <v>78.96</v>
       </c>
     </row>
     <row r="413">
@@ -7382,7 +7382,7 @@
         <v>2008</v>
       </c>
       <c r="D413" t="n">
-        <v>1633.67</v>
+        <v>116.6</v>
       </c>
     </row>
     <row r="414">
@@ -7396,7 +7396,7 @@
         <v>2009</v>
       </c>
       <c r="D414" t="n">
-        <v>1842.3</v>
+        <v>108.97</v>
       </c>
     </row>
     <row r="415">
@@ -7410,7 +7410,7 @@
         <v>2010</v>
       </c>
       <c r="D415" t="n">
-        <v>2190.68</v>
+        <v>149.04</v>
       </c>
     </row>
     <row r="416">
@@ -7424,7 +7424,7 @@
         <v>2011</v>
       </c>
       <c r="D416" t="n">
-        <v>2034.63</v>
+        <v>144.51</v>
       </c>
     </row>
     <row r="417">
@@ -7438,7 +7438,7 @@
         <v>2012</v>
       </c>
       <c r="D417" t="n">
-        <v>2047.77</v>
+        <v>144.34</v>
       </c>
     </row>
     <row r="418">
@@ -7452,7 +7452,7 @@
         <v>2000</v>
       </c>
       <c r="D418" t="n">
-        <v>116.57</v>
+        <v>181.74</v>
       </c>
     </row>
     <row r="419">
@@ -7466,7 +7466,7 @@
         <v>2001</v>
       </c>
       <c r="D419" t="n">
-        <v>100.76</v>
+        <v>166.88</v>
       </c>
     </row>
     <row r="420">
@@ -7480,7 +7480,7 @@
         <v>2002</v>
       </c>
       <c r="D420" t="n">
-        <v>122.66</v>
+        <v>186.01</v>
       </c>
     </row>
     <row r="421">
@@ -7494,7 +7494,7 @@
         <v>2003</v>
       </c>
       <c r="D421" t="n">
-        <v>88.27</v>
+        <v>234.73</v>
       </c>
     </row>
     <row r="422">
@@ -7508,7 +7508,7 @@
         <v>2004</v>
       </c>
       <c r="D422" t="n">
-        <v>86.62</v>
+        <v>201.91</v>
       </c>
     </row>
     <row r="423">
@@ -7522,7 +7522,7 @@
         <v>2005</v>
       </c>
       <c r="D423" t="n">
-        <v>115.12</v>
+        <v>201.17</v>
       </c>
     </row>
     <row r="424">
@@ -7536,7 +7536,7 @@
         <v>2006</v>
       </c>
       <c r="D424" t="n">
-        <v>99.64</v>
+        <v>241.64</v>
       </c>
     </row>
     <row r="425">
@@ -7550,7 +7550,7 @@
         <v>2007</v>
       </c>
       <c r="D425" t="n">
-        <v>78.96</v>
+        <v>300.44</v>
       </c>
     </row>
     <row r="426">
@@ -7564,7 +7564,7 @@
         <v>2008</v>
       </c>
       <c r="D426" t="n">
-        <v>116.6</v>
+        <v>330.7</v>
       </c>
     </row>
     <row r="427">
@@ -7578,7 +7578,7 @@
         <v>2009</v>
       </c>
       <c r="D427" t="n">
-        <v>108.97</v>
+        <v>429.07</v>
       </c>
     </row>
     <row r="428">
@@ -7592,7 +7592,7 @@
         <v>2010</v>
       </c>
       <c r="D428" t="n">
-        <v>149.04</v>
+        <v>476.61</v>
       </c>
     </row>
     <row r="429">
@@ -7606,7 +7606,7 @@
         <v>2011</v>
       </c>
       <c r="D429" t="n">
-        <v>144.51</v>
+        <v>424.58</v>
       </c>
     </row>
     <row r="430">
@@ -7620,7 +7620,7 @@
         <v>2012</v>
       </c>
       <c r="D430" t="n">
-        <v>144.34</v>
+        <v>460.44</v>
       </c>
     </row>
     <row r="431">
@@ -7634,7 +7634,7 @@
         <v>2000</v>
       </c>
       <c r="D431" t="n">
-        <v>181.74</v>
+        <v>3368.51</v>
       </c>
     </row>
     <row r="432">
@@ -7648,7 +7648,7 @@
         <v>2001</v>
       </c>
       <c r="D432" t="n">
-        <v>166.88</v>
+        <v>3486.32</v>
       </c>
     </row>
     <row r="433">
@@ -7662,7 +7662,7 @@
         <v>2002</v>
       </c>
       <c r="D433" t="n">
-        <v>186.01</v>
+        <v>3524.91</v>
       </c>
     </row>
     <row r="434">
@@ -7676,7 +7676,7 @@
         <v>2003</v>
       </c>
       <c r="D434" t="n">
-        <v>234.73</v>
+        <v>3477.07</v>
       </c>
     </row>
     <row r="435">
@@ -7690,7 +7690,7 @@
         <v>2004</v>
       </c>
       <c r="D435" t="n">
-        <v>201.91</v>
+        <v>3398.2</v>
       </c>
     </row>
     <row r="436">
@@ -7704,7 +7704,7 @@
         <v>2005</v>
       </c>
       <c r="D436" t="n">
-        <v>201.17</v>
+        <v>3439.2</v>
       </c>
     </row>
     <row r="437">
@@ -7718,7 +7718,7 @@
         <v>2006</v>
       </c>
       <c r="D437" t="n">
-        <v>241.64</v>
+        <v>3288.13</v>
       </c>
     </row>
     <row r="438">
@@ -7732,7 +7732,7 @@
         <v>2007</v>
       </c>
       <c r="D438" t="n">
-        <v>300.44</v>
+        <v>3543.42</v>
       </c>
     </row>
     <row r="439">
@@ -7746,7 +7746,7 @@
         <v>2008</v>
       </c>
       <c r="D439" t="n">
-        <v>330.7</v>
+        <v>4063.61</v>
       </c>
     </row>
     <row r="440">
@@ -7760,7 +7760,7 @@
         <v>2009</v>
       </c>
       <c r="D440" t="n">
-        <v>429.07</v>
+        <v>4533.88</v>
       </c>
     </row>
     <row r="441">
@@ -7774,7 +7774,7 @@
         <v>2010</v>
       </c>
       <c r="D441" t="n">
-        <v>476.61</v>
+        <v>4595.71</v>
       </c>
     </row>
     <row r="442">
@@ -7788,7 +7788,7 @@
         <v>2011</v>
       </c>
       <c r="D442" t="n">
-        <v>424.58</v>
+        <v>4688.16</v>
       </c>
     </row>
     <row r="443">
@@ -7802,7 +7802,7 @@
         <v>2012</v>
       </c>
       <c r="D443" t="n">
-        <v>460.44</v>
+        <v>5006.42</v>
       </c>
     </row>
     <row r="444">
@@ -7816,7 +7816,7 @@
         <v>2000</v>
       </c>
       <c r="D444" t="n">
-        <v>3368.51</v>
+        <v>615.61</v>
       </c>
     </row>
     <row r="445">
@@ -7830,7 +7830,7 @@
         <v>2001</v>
       </c>
       <c r="D445" t="n">
-        <v>3486.32</v>
+        <v>695.19</v>
       </c>
     </row>
     <row r="446">
@@ -7844,7 +7844,7 @@
         <v>2002</v>
       </c>
       <c r="D446" t="n">
-        <v>3524.91</v>
+        <v>794.19</v>
       </c>
     </row>
     <row r="447">
@@ -7858,7 +7858,7 @@
         <v>2003</v>
       </c>
       <c r="D447" t="n">
-        <v>3477.07</v>
+        <v>855.49</v>
       </c>
     </row>
     <row r="448">
@@ -7872,7 +7872,7 @@
         <v>2004</v>
       </c>
       <c r="D448" t="n">
-        <v>3398.2</v>
+        <v>912.86</v>
       </c>
     </row>
     <row r="449">
@@ -7886,7 +7886,7 @@
         <v>2005</v>
       </c>
       <c r="D449" t="n">
-        <v>3439.2</v>
+        <v>1036.35</v>
       </c>
     </row>
     <row r="450">
@@ -7900,7 +7900,7 @@
         <v>2006</v>
       </c>
       <c r="D450" t="n">
-        <v>3288.13</v>
+        <v>1180.25</v>
       </c>
     </row>
     <row r="451">
@@ -7914,7 +7914,7 @@
         <v>2007</v>
       </c>
       <c r="D451" t="n">
-        <v>3543.42</v>
+        <v>1339.9</v>
       </c>
     </row>
     <row r="452">
@@ -7928,7 +7928,7 @@
         <v>2008</v>
       </c>
       <c r="D452" t="n">
-        <v>4063.61</v>
+        <v>1576.77</v>
       </c>
     </row>
     <row r="453">
@@ -7942,7 +7942,7 @@
         <v>2009</v>
       </c>
       <c r="D453" t="n">
-        <v>4533.88</v>
+        <v>1953.23</v>
       </c>
     </row>
     <row r="454">
@@ -7956,7 +7956,7 @@
         <v>2010</v>
       </c>
       <c r="D454" t="n">
-        <v>4595.71</v>
+        <v>2107.68</v>
       </c>
     </row>
     <row r="455">
@@ -7970,7 +7970,7 @@
         <v>2011</v>
       </c>
       <c r="D455" t="n">
-        <v>4688.16</v>
+        <v>2398.51</v>
       </c>
     </row>
     <row r="456">
@@ -7984,7 +7984,7 @@
         <v>2012</v>
       </c>
       <c r="D456" t="n">
-        <v>5006.42</v>
+        <v>2675.13</v>
       </c>
     </row>
     <row r="457">
@@ -7998,7 +7998,7 @@
         <v>2000</v>
       </c>
       <c r="D457" t="n">
-        <v>615.61</v>
+        <v>2228.38</v>
       </c>
     </row>
     <row r="458">
@@ -8012,7 +8012,7 @@
         <v>2001</v>
       </c>
       <c r="D458" t="n">
-        <v>695.19</v>
+        <v>2322.65</v>
       </c>
     </row>
     <row r="459">
@@ -8026,7 +8026,7 @@
         <v>2002</v>
       </c>
       <c r="D459" t="n">
-        <v>794.19</v>
+        <v>2373.36</v>
       </c>
     </row>
     <row r="460">
@@ -8040,7 +8040,7 @@
         <v>2003</v>
       </c>
       <c r="D460" t="n">
-        <v>855.49</v>
+        <v>2422.51</v>
       </c>
     </row>
     <row r="461">
@@ -8054,7 +8054,7 @@
         <v>2004</v>
       </c>
       <c r="D461" t="n">
-        <v>912.86</v>
+        <v>2384.57</v>
       </c>
     </row>
     <row r="462">
@@ -8068,7 +8068,7 @@
         <v>2005</v>
       </c>
       <c r="D462" t="n">
-        <v>1036.35</v>
+        <v>2393.15</v>
       </c>
     </row>
     <row r="463">
@@ -8082,7 +8082,7 @@
         <v>2006</v>
       </c>
       <c r="D463" t="n">
-        <v>1180.25</v>
+        <v>2765.63</v>
       </c>
     </row>
     <row r="464">
@@ -8096,7 +8096,7 @@
         <v>2007</v>
       </c>
       <c r="D464" t="n">
-        <v>1339.9</v>
+        <v>2887.17</v>
       </c>
     </row>
     <row r="465">
@@ -8110,7 +8110,7 @@
         <v>2008</v>
       </c>
       <c r="D465" t="n">
-        <v>1576.77</v>
+        <v>2800.22</v>
       </c>
     </row>
     <row r="466">
@@ -8124,7 +8124,7 @@
         <v>2009</v>
       </c>
       <c r="D466" t="n">
-        <v>1953.23</v>
+        <v>3109.91</v>
       </c>
     </row>
     <row r="467">
@@ -8138,7 +8138,7 @@
         <v>2010</v>
       </c>
       <c r="D467" t="n">
-        <v>2107.68</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="468">
@@ -8152,7 +8152,7 @@
         <v>2011</v>
       </c>
       <c r="D468" t="n">
-        <v>2398.51</v>
+        <v>3254.48</v>
       </c>
     </row>
     <row r="469">
@@ -8166,7 +8166,7 @@
         <v>2012</v>
       </c>
       <c r="D469" t="n">
-        <v>2675.13</v>
+        <v>3302.7</v>
       </c>
     </row>
     <row r="470">
@@ -8180,7 +8180,7 @@
         <v>2000</v>
       </c>
       <c r="D470" t="n">
-        <v>2228.38</v>
+        <v>257.2</v>
       </c>
     </row>
     <row r="471">
@@ -8194,7 +8194,7 @@
         <v>2001</v>
       </c>
       <c r="D471" t="n">
-        <v>2322.65</v>
+        <v>348.44</v>
       </c>
     </row>
     <row r="472">
@@ -8208,7 +8208,7 @@
         <v>2002</v>
       </c>
       <c r="D472" t="n">
-        <v>2373.36</v>
+        <v>381.5</v>
       </c>
     </row>
     <row r="473">
@@ -8222,7 +8222,7 @@
         <v>2003</v>
       </c>
       <c r="D473" t="n">
-        <v>2422.51</v>
+        <v>340.76</v>
       </c>
     </row>
     <row r="474">
@@ -8236,7 +8236,7 @@
         <v>2004</v>
       </c>
       <c r="D474" t="n">
-        <v>2384.57</v>
+        <v>307.07</v>
       </c>
     </row>
     <row r="475">
@@ -8250,7 +8250,7 @@
         <v>2005</v>
       </c>
       <c r="D475" t="n">
-        <v>2393.15</v>
+        <v>311.14</v>
       </c>
     </row>
     <row r="476">
@@ -8264,7 +8264,7 @@
         <v>2006</v>
       </c>
       <c r="D476" t="n">
-        <v>2765.63</v>
+        <v>326.61</v>
       </c>
     </row>
     <row r="477">
@@ -8278,7 +8278,7 @@
         <v>2007</v>
       </c>
       <c r="D477" t="n">
-        <v>2887.17</v>
+        <v>342.37</v>
       </c>
     </row>
     <row r="478">
@@ -8292,7 +8292,7 @@
         <v>2008</v>
       </c>
       <c r="D478" t="n">
-        <v>2800.22</v>
+        <v>376.84</v>
       </c>
     </row>
     <row r="479">
@@ -8306,7 +8306,7 @@
         <v>2009</v>
       </c>
       <c r="D479" t="n">
-        <v>3109.91</v>
+        <v>292.59</v>
       </c>
     </row>
     <row r="480">
@@ -8320,7 +8320,7 @@
         <v>2010</v>
       </c>
       <c r="D480" t="n">
-        <v>3175</v>
+        <v>286.22</v>
       </c>
     </row>
     <row r="481">
@@ -8334,7 +8334,7 @@
         <v>2011</v>
       </c>
       <c r="D481" t="n">
-        <v>3254.48</v>
+        <v>322.64</v>
       </c>
     </row>
     <row r="482">
@@ -8348,7 +8348,7 @@
         <v>2012</v>
       </c>
       <c r="D482" t="n">
-        <v>3302.7</v>
+        <v>365.66</v>
       </c>
     </row>
     <row r="483">
@@ -8362,7 +8362,7 @@
         <v>2000</v>
       </c>
       <c r="D483" t="n">
-        <v>257.2</v>
+        <v>1176.63</v>
       </c>
     </row>
     <row r="484">
@@ -8376,7 +8376,7 @@
         <v>2001</v>
       </c>
       <c r="D484" t="n">
-        <v>348.44</v>
+        <v>1146.05</v>
       </c>
     </row>
     <row r="485">
@@ -8390,7 +8390,7 @@
         <v>2002</v>
       </c>
       <c r="D485" t="n">
-        <v>381.5</v>
+        <v>1322.2</v>
       </c>
     </row>
     <row r="486">
@@ -8404,7 +8404,7 @@
         <v>2003</v>
       </c>
       <c r="D486" t="n">
-        <v>340.76</v>
+        <v>1400.95</v>
       </c>
     </row>
     <row r="487">
@@ -8418,7 +8418,7 @@
         <v>2004</v>
       </c>
       <c r="D487" t="n">
-        <v>307.07</v>
+        <v>1260.86</v>
       </c>
     </row>
     <row r="488">
@@ -8432,7 +8432,7 @@
         <v>2005</v>
       </c>
       <c r="D488" t="n">
-        <v>311.14</v>
+        <v>1194.89</v>
       </c>
     </row>
     <row r="489">
@@ -8446,7 +8446,7 @@
         <v>2006</v>
       </c>
       <c r="D489" t="n">
-        <v>326.61</v>
+        <v>1399.83</v>
       </c>
     </row>
     <row r="490">
@@ -8460,7 +8460,7 @@
         <v>2007</v>
       </c>
       <c r="D490" t="n">
-        <v>342.37</v>
+        <v>1464.9</v>
       </c>
     </row>
     <row r="491">
@@ -8474,7 +8474,7 @@
         <v>2008</v>
       </c>
       <c r="D491" t="n">
-        <v>376.84</v>
+        <v>1186.42</v>
       </c>
     </row>
     <row r="492">
@@ -8488,7 +8488,7 @@
         <v>2009</v>
       </c>
       <c r="D492" t="n">
-        <v>292.59</v>
+        <v>1289.31</v>
       </c>
     </row>
     <row r="493">
@@ -8502,7 +8502,7 @@
         <v>2010</v>
       </c>
       <c r="D493" t="n">
-        <v>286.22</v>
+        <v>1185.48</v>
       </c>
     </row>
     <row r="494">
@@ -8516,7 +8516,7 @@
         <v>2011</v>
       </c>
       <c r="D494" t="n">
-        <v>322.64</v>
+        <v>1449.75</v>
       </c>
     </row>
     <row r="495">
@@ -8530,7 +8530,7 @@
         <v>2012</v>
       </c>
       <c r="D495" t="n">
-        <v>365.66</v>
+        <v>2038.08</v>
       </c>
     </row>
     <row r="496">
@@ -8544,7 +8544,7 @@
         <v>2000</v>
       </c>
       <c r="D496" t="n">
-        <v>1176.63</v>
+        <v>1512.66</v>
       </c>
     </row>
     <row r="497">
@@ -8558,7 +8558,7 @@
         <v>2001</v>
       </c>
       <c r="D497" t="n">
-        <v>1146.05</v>
+        <v>1586.15</v>
       </c>
     </row>
     <row r="498">
@@ -8572,7 +8572,7 @@
         <v>2002</v>
       </c>
       <c r="D498" t="n">
-        <v>1322.2</v>
+        <v>1736.02</v>
       </c>
     </row>
     <row r="499">
@@ -8586,7 +8586,7 @@
         <v>2003</v>
       </c>
       <c r="D499" t="n">
-        <v>1400.95</v>
+        <v>1719.92</v>
       </c>
     </row>
     <row r="500">
@@ -8600,7 +8600,7 @@
         <v>2004</v>
       </c>
       <c r="D500" t="n">
-        <v>1260.86</v>
+        <v>1730.82</v>
       </c>
     </row>
     <row r="501">
@@ -8614,7 +8614,7 @@
         <v>2005</v>
       </c>
       <c r="D501" t="n">
-        <v>1194.89</v>
+        <v>1762.03</v>
       </c>
     </row>
     <row r="502">
@@ -8628,7 +8628,7 @@
         <v>2006</v>
       </c>
       <c r="D502" t="n">
-        <v>1399.83</v>
+        <v>1773.84</v>
       </c>
     </row>
     <row r="503">
@@ -8642,7 +8642,7 @@
         <v>2007</v>
       </c>
       <c r="D503" t="n">
-        <v>1464.9</v>
+        <v>1823.75</v>
       </c>
     </row>
     <row r="504">
@@ -8656,7 +8656,7 @@
         <v>2008</v>
       </c>
       <c r="D504" t="n">
-        <v>1186.42</v>
+        <v>1964.82</v>
       </c>
     </row>
     <row r="505">
@@ -8670,7 +8670,7 @@
         <v>2009</v>
       </c>
       <c r="D505" t="n">
-        <v>1289.31</v>
+        <v>2091.53</v>
       </c>
     </row>
     <row r="506">
@@ -8684,7 +8684,7 @@
         <v>2010</v>
       </c>
       <c r="D506" t="n">
-        <v>1185.48</v>
+        <v>2329.07</v>
       </c>
     </row>
     <row r="507">
@@ -8698,7 +8698,7 @@
         <v>2011</v>
       </c>
       <c r="D507" t="n">
-        <v>1449.75</v>
+        <v>2278.85</v>
       </c>
     </row>
     <row r="508">
@@ -8712,7 +8712,7 @@
         <v>2012</v>
       </c>
       <c r="D508" t="n">
-        <v>2038.08</v>
+        <v>2396.72</v>
       </c>
     </row>
     <row r="509">
@@ -8726,7 +8726,7 @@
         <v>2000</v>
       </c>
       <c r="D509" t="n">
-        <v>1512.66</v>
+        <v>532.75</v>
       </c>
     </row>
     <row r="510">
@@ -8740,7 +8740,7 @@
         <v>2001</v>
       </c>
       <c r="D510" t="n">
-        <v>1586.15</v>
+        <v>479.53</v>
       </c>
     </row>
     <row r="511">
@@ -8754,7 +8754,7 @@
         <v>2002</v>
       </c>
       <c r="D511" t="n">
-        <v>1736.02</v>
+        <v>489.94</v>
       </c>
     </row>
     <row r="512">
@@ -8768,7 +8768,7 @@
         <v>2003</v>
       </c>
       <c r="D512" t="n">
-        <v>1719.92</v>
+        <v>525.54</v>
       </c>
     </row>
     <row r="513">
@@ -8782,7 +8782,7 @@
         <v>2004</v>
       </c>
       <c r="D513" t="n">
-        <v>1730.82</v>
+        <v>539.74</v>
       </c>
     </row>
     <row r="514">
@@ -8796,7 +8796,7 @@
         <v>2005</v>
       </c>
       <c r="D514" t="n">
-        <v>1762.03</v>
+        <v>529.4</v>
       </c>
     </row>
     <row r="515">
@@ -8810,7 +8810,7 @@
         <v>2006</v>
       </c>
       <c r="D515" t="n">
-        <v>1773.84</v>
+        <v>545.26</v>
       </c>
     </row>
     <row r="516">
@@ -8824,7 +8824,7 @@
         <v>2007</v>
       </c>
       <c r="D516" t="n">
-        <v>1823.75</v>
+        <v>540.77</v>
       </c>
     </row>
     <row r="517">
@@ -8838,7 +8838,7 @@
         <v>2008</v>
       </c>
       <c r="D517" t="n">
-        <v>1964.82</v>
+        <v>564.98</v>
       </c>
     </row>
     <row r="518">
@@ -8852,7 +8852,7 @@
         <v>2009</v>
       </c>
       <c r="D518" t="n">
-        <v>2091.53</v>
+        <v>532.8</v>
       </c>
     </row>
     <row r="519">
@@ -8866,7 +8866,7 @@
         <v>2010</v>
       </c>
       <c r="D519" t="n">
-        <v>2329.07</v>
+        <v>589.71</v>
       </c>
     </row>
     <row r="520">
@@ -8880,7 +8880,7 @@
         <v>2011</v>
       </c>
       <c r="D520" t="n">
-        <v>2278.85</v>
+        <v>580.95</v>
       </c>
     </row>
     <row r="521">
@@ -8894,7 +8894,7 @@
         <v>2012</v>
       </c>
       <c r="D521" t="n">
-        <v>2396.72</v>
+        <v>635.32</v>
       </c>
     </row>
     <row r="522">
@@ -33694,7 +33694,7 @@
         <v>2000</v>
       </c>
       <c r="D2316" t="n">
-        <v>1766.86</v>
+        <v>10683.97</v>
       </c>
     </row>
     <row r="2317">
@@ -33708,7 +33708,7 @@
         <v>2001</v>
       </c>
       <c r="D2317" t="n">
-        <v>1941.31</v>
+        <v>11822.55</v>
       </c>
     </row>
     <row r="2318">
@@ -33722,7 +33722,7 @@
         <v>2002</v>
       </c>
       <c r="D2318" t="n">
-        <v>2135.99</v>
+        <v>12414.63</v>
       </c>
     </row>
     <row r="2319">
@@ -33736,7 +33736,7 @@
         <v>2003</v>
       </c>
       <c r="D2319" t="n">
-        <v>2419.26</v>
+        <v>13153.18</v>
       </c>
     </row>
     <row r="2320">
@@ -33750,7 +33750,7 @@
         <v>2004</v>
       </c>
       <c r="D2320" t="n">
-        <v>2920.92</v>
+        <v>13701.07</v>
       </c>
     </row>
     <row r="2321">
@@ -33764,7 +33764,7 @@
         <v>2005</v>
       </c>
       <c r="D2321" t="n">
-        <v>3208.71</v>
+        <v>14213.46</v>
       </c>
     </row>
     <row r="2322">
@@ -33778,7 +33778,7 @@
         <v>2006</v>
       </c>
       <c r="D2322" t="n">
-        <v>3505.21</v>
+        <v>14567.47</v>
       </c>
     </row>
     <row r="2323">
@@ -33792,7 +33792,7 @@
         <v>2007</v>
       </c>
       <c r="D2323" t="n">
-        <v>3739.15</v>
+        <v>14870.12</v>
       </c>
     </row>
     <row r="2324">
@@ -33806,7 +33806,7 @@
         <v>2008</v>
       </c>
       <c r="D2324" t="n">
-        <v>4162.63</v>
+        <v>15614.67</v>
       </c>
     </row>
     <row r="2325">
@@ -33820,7 +33820,7 @@
         <v>2009</v>
       </c>
       <c r="D2325" t="n">
-        <v>3646.53</v>
+        <v>16221.04</v>
       </c>
     </row>
     <row r="2326">
@@ -33834,7 +33834,7 @@
         <v>2010</v>
       </c>
       <c r="D2326" t="n">
-        <v>3850.17</v>
+        <v>16136.62</v>
       </c>
     </row>
     <row r="2327">
@@ -33848,7 +33848,7 @@
         <v>2011</v>
       </c>
       <c r="D2327" t="n">
-        <v>3784.84</v>
+        <v>15691.52</v>
       </c>
     </row>
     <row r="2328">
@@ -33862,7 +33862,7 @@
         <v>2012</v>
       </c>
       <c r="D2328" t="n">
-        <v>4083.09</v>
+        <v>15626.39</v>
       </c>
     </row>
     <row r="2329">
@@ -33876,7 +33876,7 @@
         <v>2000</v>
       </c>
       <c r="D2329" t="n">
-        <v>10683.97</v>
+        <v>1766.86</v>
       </c>
     </row>
     <row r="2330">
@@ -33890,7 +33890,7 @@
         <v>2001</v>
       </c>
       <c r="D2330" t="n">
-        <v>11822.55</v>
+        <v>1941.31</v>
       </c>
     </row>
     <row r="2331">
@@ -33904,7 +33904,7 @@
         <v>2002</v>
       </c>
       <c r="D2331" t="n">
-        <v>12414.63</v>
+        <v>2135.99</v>
       </c>
     </row>
     <row r="2332">
@@ -33918,7 +33918,7 @@
         <v>2003</v>
       </c>
       <c r="D2332" t="n">
-        <v>13153.18</v>
+        <v>2419.26</v>
       </c>
     </row>
     <row r="2333">
@@ -33932,7 +33932,7 @@
         <v>2004</v>
       </c>
       <c r="D2333" t="n">
-        <v>13701.07</v>
+        <v>2920.92</v>
       </c>
     </row>
     <row r="2334">
@@ -33946,7 +33946,7 @@
         <v>2005</v>
       </c>
       <c r="D2334" t="n">
-        <v>14213.46</v>
+        <v>3208.71</v>
       </c>
     </row>
     <row r="2335">
@@ -33960,7 +33960,7 @@
         <v>2006</v>
       </c>
       <c r="D2335" t="n">
-        <v>14567.47</v>
+        <v>3505.21</v>
       </c>
     </row>
     <row r="2336">
@@ -33974,7 +33974,7 @@
         <v>2007</v>
       </c>
       <c r="D2336" t="n">
-        <v>14870.12</v>
+        <v>3739.15</v>
       </c>
     </row>
     <row r="2337">
@@ -33988,7 +33988,7 @@
         <v>2008</v>
       </c>
       <c r="D2337" t="n">
-        <v>15614.67</v>
+        <v>4162.63</v>
       </c>
     </row>
     <row r="2338">
@@ -34002,7 +34002,7 @@
         <v>2009</v>
       </c>
       <c r="D2338" t="n">
-        <v>16221.04</v>
+        <v>3646.53</v>
       </c>
     </row>
     <row r="2339">
@@ -34016,7 +34016,7 @@
         <v>2010</v>
       </c>
       <c r="D2339" t="n">
-        <v>16136.62</v>
+        <v>3850.17</v>
       </c>
     </row>
     <row r="2340">
@@ -34030,7 +34030,7 @@
         <v>2011</v>
       </c>
       <c r="D2340" t="n">
-        <v>15691.52</v>
+        <v>3784.84</v>
       </c>
     </row>
     <row r="2341">
@@ -34044,7 +34044,7 @@
         <v>2012</v>
       </c>
       <c r="D2341" t="n">
-        <v>15626.39</v>
+        <v>4083.09</v>
       </c>
     </row>
     <row r="2342">
@@ -36945,43 +36945,43 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>532.75</v>
+        <v>205.82</v>
       </c>
       <c r="D29" t="n">
-        <v>479.53</v>
+        <v>219.19</v>
       </c>
       <c r="E29" t="n">
-        <v>489.94</v>
+        <v>243.21</v>
       </c>
       <c r="F29" t="n">
-        <v>525.54</v>
+        <v>245.3</v>
       </c>
       <c r="G29" t="n">
-        <v>539.74</v>
+        <v>242.04</v>
       </c>
       <c r="H29" t="n">
-        <v>529.4</v>
+        <v>241.29</v>
       </c>
       <c r="I29" t="n">
-        <v>545.26</v>
+        <v>276.6</v>
       </c>
       <c r="J29" t="n">
-        <v>540.77</v>
+        <v>331.57</v>
       </c>
       <c r="K29" t="n">
-        <v>564.98</v>
+        <v>380.6</v>
       </c>
       <c r="L29" t="n">
-        <v>532.8</v>
+        <v>482.4</v>
       </c>
       <c r="M29" t="n">
-        <v>589.71</v>
+        <v>499.54</v>
       </c>
       <c r="N29" t="n">
-        <v>580.95</v>
+        <v>519.37</v>
       </c>
       <c r="O29" t="n">
-        <v>635.32</v>
+        <v>577.39</v>
       </c>
     </row>
     <row r="30">
@@ -36992,43 +36992,43 @@
         <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>205.82</v>
+        <v>380.07</v>
       </c>
       <c r="D30" t="n">
-        <v>219.19</v>
+        <v>394.19</v>
       </c>
       <c r="E30" t="n">
-        <v>243.21</v>
+        <v>361.59</v>
       </c>
       <c r="F30" t="n">
-        <v>245.3</v>
+        <v>364.57</v>
       </c>
       <c r="G30" t="n">
-        <v>242.04</v>
+        <v>385.64</v>
       </c>
       <c r="H30" t="n">
-        <v>241.29</v>
+        <v>351.48</v>
       </c>
       <c r="I30" t="n">
-        <v>276.6</v>
+        <v>337.14</v>
       </c>
       <c r="J30" t="n">
-        <v>331.57</v>
+        <v>379.89</v>
       </c>
       <c r="K30" t="n">
-        <v>380.6</v>
+        <v>442.1</v>
       </c>
       <c r="L30" t="n">
-        <v>482.4</v>
+        <v>434.81</v>
       </c>
       <c r="M30" t="n">
-        <v>499.54</v>
+        <v>455.31</v>
       </c>
       <c r="N30" t="n">
-        <v>519.37</v>
+        <v>535.9</v>
       </c>
       <c r="O30" t="n">
-        <v>577.39</v>
+        <v>521.08</v>
       </c>
     </row>
     <row r="31">
@@ -37039,43 +37039,43 @@
         <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>380.07</v>
+        <v>15950.55</v>
       </c>
       <c r="D31" t="n">
-        <v>394.19</v>
+        <v>16343.53</v>
       </c>
       <c r="E31" t="n">
-        <v>361.59</v>
+        <v>16286.21</v>
       </c>
       <c r="F31" t="n">
-        <v>364.57</v>
+        <v>16517.05</v>
       </c>
       <c r="G31" t="n">
-        <v>385.64</v>
+        <v>16310.27</v>
       </c>
       <c r="H31" t="n">
-        <v>351.48</v>
+        <v>16782.92</v>
       </c>
       <c r="I31" t="n">
-        <v>337.14</v>
+        <v>16970.86</v>
       </c>
       <c r="J31" t="n">
-        <v>379.89</v>
+        <v>17124.14</v>
       </c>
       <c r="K31" t="n">
-        <v>442.1</v>
+        <v>17290.6</v>
       </c>
       <c r="L31" t="n">
-        <v>434.81</v>
+        <v>18357.87</v>
       </c>
       <c r="M31" t="n">
-        <v>455.31</v>
+        <v>18755.12</v>
       </c>
       <c r="N31" t="n">
-        <v>535.9</v>
+        <v>18432.72</v>
       </c>
       <c r="O31" t="n">
-        <v>521.08</v>
+        <v>18133.44</v>
       </c>
     </row>
     <row r="32">
@@ -37085,44 +37085,40 @@
       <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="C32" t="n">
-        <v>15950.55</v>
-      </c>
-      <c r="D32" t="n">
-        <v>16343.53</v>
-      </c>
+      <c r="C32"/>
+      <c r="D32"/>
       <c r="E32" t="n">
-        <v>16286.21</v>
+        <v>1313.55</v>
       </c>
       <c r="F32" t="n">
-        <v>16517.05</v>
+        <v>1037.37</v>
       </c>
       <c r="G32" t="n">
-        <v>16310.27</v>
+        <v>1270.85</v>
       </c>
       <c r="H32" t="n">
-        <v>16782.92</v>
+        <v>1393.96</v>
       </c>
       <c r="I32" t="n">
-        <v>16970.86</v>
+        <v>1537.36</v>
       </c>
       <c r="J32" t="n">
-        <v>17124.14</v>
+        <v>1504.32</v>
       </c>
       <c r="K32" t="n">
-        <v>17290.6</v>
+        <v>1633.67</v>
       </c>
       <c r="L32" t="n">
-        <v>18357.87</v>
+        <v>1842.3</v>
       </c>
       <c r="M32" t="n">
-        <v>18755.12</v>
+        <v>2190.68</v>
       </c>
       <c r="N32" t="n">
-        <v>18432.72</v>
+        <v>2034.63</v>
       </c>
       <c r="O32" t="n">
-        <v>18133.44</v>
+        <v>2047.77</v>
       </c>
     </row>
     <row r="33">
@@ -37132,40 +37128,44 @@
       <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="C33"/>
-      <c r="D33"/>
+      <c r="C33" t="n">
+        <v>116.57</v>
+      </c>
+      <c r="D33" t="n">
+        <v>100.76</v>
+      </c>
       <c r="E33" t="n">
-        <v>1313.55</v>
+        <v>122.66</v>
       </c>
       <c r="F33" t="n">
-        <v>1037.37</v>
+        <v>88.27</v>
       </c>
       <c r="G33" t="n">
-        <v>1270.85</v>
+        <v>86.62</v>
       </c>
       <c r="H33" t="n">
-        <v>1393.96</v>
+        <v>115.12</v>
       </c>
       <c r="I33" t="n">
-        <v>1537.36</v>
+        <v>99.64</v>
       </c>
       <c r="J33" t="n">
-        <v>1504.32</v>
+        <v>78.96</v>
       </c>
       <c r="K33" t="n">
-        <v>1633.67</v>
+        <v>116.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1842.3</v>
+        <v>108.97</v>
       </c>
       <c r="M33" t="n">
-        <v>2190.68</v>
+        <v>149.04</v>
       </c>
       <c r="N33" t="n">
-        <v>2034.63</v>
+        <v>144.51</v>
       </c>
       <c r="O33" t="n">
-        <v>2047.77</v>
+        <v>144.34</v>
       </c>
     </row>
     <row r="34">
@@ -37176,43 +37176,43 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>116.57</v>
+        <v>181.74</v>
       </c>
       <c r="D34" t="n">
-        <v>100.76</v>
+        <v>166.88</v>
       </c>
       <c r="E34" t="n">
-        <v>122.66</v>
+        <v>186.01</v>
       </c>
       <c r="F34" t="n">
-        <v>88.27</v>
+        <v>234.73</v>
       </c>
       <c r="G34" t="n">
-        <v>86.62</v>
+        <v>201.91</v>
       </c>
       <c r="H34" t="n">
-        <v>115.12</v>
+        <v>201.17</v>
       </c>
       <c r="I34" t="n">
-        <v>99.64</v>
+        <v>241.64</v>
       </c>
       <c r="J34" t="n">
-        <v>78.96</v>
+        <v>300.44</v>
       </c>
       <c r="K34" t="n">
-        <v>116.6</v>
+        <v>330.7</v>
       </c>
       <c r="L34" t="n">
-        <v>108.97</v>
+        <v>429.07</v>
       </c>
       <c r="M34" t="n">
-        <v>149.04</v>
+        <v>476.61</v>
       </c>
       <c r="N34" t="n">
-        <v>144.51</v>
+        <v>424.58</v>
       </c>
       <c r="O34" t="n">
-        <v>144.34</v>
+        <v>460.44</v>
       </c>
     </row>
     <row r="35">
@@ -37223,43 +37223,43 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>181.74</v>
+        <v>3368.51</v>
       </c>
       <c r="D35" t="n">
-        <v>166.88</v>
+        <v>3486.32</v>
       </c>
       <c r="E35" t="n">
-        <v>186.01</v>
+        <v>3524.91</v>
       </c>
       <c r="F35" t="n">
-        <v>234.73</v>
+        <v>3477.07</v>
       </c>
       <c r="G35" t="n">
-        <v>201.91</v>
+        <v>3398.2</v>
       </c>
       <c r="H35" t="n">
-        <v>201.17</v>
+        <v>3439.2</v>
       </c>
       <c r="I35" t="n">
-        <v>241.64</v>
+        <v>3288.13</v>
       </c>
       <c r="J35" t="n">
-        <v>300.44</v>
+        <v>3543.42</v>
       </c>
       <c r="K35" t="n">
-        <v>330.7</v>
+        <v>4063.61</v>
       </c>
       <c r="L35" t="n">
-        <v>429.07</v>
+        <v>4533.88</v>
       </c>
       <c r="M35" t="n">
-        <v>476.61</v>
+        <v>4595.71</v>
       </c>
       <c r="N35" t="n">
-        <v>424.58</v>
+        <v>4688.16</v>
       </c>
       <c r="O35" t="n">
-        <v>460.44</v>
+        <v>5006.42</v>
       </c>
     </row>
     <row r="36">
@@ -37270,43 +37270,43 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>3368.51</v>
+        <v>615.61</v>
       </c>
       <c r="D36" t="n">
-        <v>3486.32</v>
+        <v>695.19</v>
       </c>
       <c r="E36" t="n">
-        <v>3524.91</v>
+        <v>794.19</v>
       </c>
       <c r="F36" t="n">
-        <v>3477.07</v>
+        <v>855.49</v>
       </c>
       <c r="G36" t="n">
-        <v>3398.2</v>
+        <v>912.86</v>
       </c>
       <c r="H36" t="n">
-        <v>3439.2</v>
+        <v>1036.35</v>
       </c>
       <c r="I36" t="n">
-        <v>3288.13</v>
+        <v>1180.25</v>
       </c>
       <c r="J36" t="n">
-        <v>3543.42</v>
+        <v>1339.9</v>
       </c>
       <c r="K36" t="n">
-        <v>4063.61</v>
+        <v>1576.77</v>
       </c>
       <c r="L36" t="n">
-        <v>4533.88</v>
+        <v>1953.23</v>
       </c>
       <c r="M36" t="n">
-        <v>4595.71</v>
+        <v>2107.68</v>
       </c>
       <c r="N36" t="n">
-        <v>4688.16</v>
+        <v>2398.51</v>
       </c>
       <c r="O36" t="n">
-        <v>5006.42</v>
+        <v>2675.13</v>
       </c>
     </row>
     <row r="37">
@@ -37317,43 +37317,43 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>615.61</v>
+        <v>2228.38</v>
       </c>
       <c r="D37" t="n">
-        <v>695.19</v>
+        <v>2322.65</v>
       </c>
       <c r="E37" t="n">
-        <v>794.19</v>
+        <v>2373.36</v>
       </c>
       <c r="F37" t="n">
-        <v>855.49</v>
+        <v>2422.51</v>
       </c>
       <c r="G37" t="n">
-        <v>912.86</v>
+        <v>2384.57</v>
       </c>
       <c r="H37" t="n">
-        <v>1036.35</v>
+        <v>2393.15</v>
       </c>
       <c r="I37" t="n">
-        <v>1180.25</v>
+        <v>2765.63</v>
       </c>
       <c r="J37" t="n">
-        <v>1339.9</v>
+        <v>2887.17</v>
       </c>
       <c r="K37" t="n">
-        <v>1576.77</v>
+        <v>2800.22</v>
       </c>
       <c r="L37" t="n">
-        <v>1953.23</v>
+        <v>3109.91</v>
       </c>
       <c r="M37" t="n">
-        <v>2107.68</v>
+        <v>3175</v>
       </c>
       <c r="N37" t="n">
-        <v>2398.51</v>
+        <v>3254.48</v>
       </c>
       <c r="O37" t="n">
-        <v>2675.13</v>
+        <v>3302.7</v>
       </c>
     </row>
     <row r="38">
@@ -37364,43 +37364,43 @@
         <v>77</v>
       </c>
       <c r="C38" t="n">
-        <v>2228.38</v>
+        <v>257.2</v>
       </c>
       <c r="D38" t="n">
-        <v>2322.65</v>
+        <v>348.44</v>
       </c>
       <c r="E38" t="n">
-        <v>2373.36</v>
+        <v>381.5</v>
       </c>
       <c r="F38" t="n">
-        <v>2422.51</v>
+        <v>340.76</v>
       </c>
       <c r="G38" t="n">
-        <v>2384.57</v>
+        <v>307.07</v>
       </c>
       <c r="H38" t="n">
-        <v>2393.15</v>
+        <v>311.14</v>
       </c>
       <c r="I38" t="n">
-        <v>2765.63</v>
+        <v>326.61</v>
       </c>
       <c r="J38" t="n">
-        <v>2887.17</v>
+        <v>342.37</v>
       </c>
       <c r="K38" t="n">
-        <v>2800.22</v>
+        <v>376.84</v>
       </c>
       <c r="L38" t="n">
-        <v>3109.91</v>
+        <v>292.59</v>
       </c>
       <c r="M38" t="n">
-        <v>3175</v>
+        <v>286.22</v>
       </c>
       <c r="N38" t="n">
-        <v>3254.48</v>
+        <v>322.64</v>
       </c>
       <c r="O38" t="n">
-        <v>3302.7</v>
+        <v>365.66</v>
       </c>
     </row>
     <row r="39">
@@ -37411,43 +37411,43 @@
         <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>257.2</v>
+        <v>1176.63</v>
       </c>
       <c r="D39" t="n">
-        <v>348.44</v>
+        <v>1146.05</v>
       </c>
       <c r="E39" t="n">
-        <v>381.5</v>
+        <v>1322.2</v>
       </c>
       <c r="F39" t="n">
-        <v>340.76</v>
+        <v>1400.95</v>
       </c>
       <c r="G39" t="n">
-        <v>307.07</v>
+        <v>1260.86</v>
       </c>
       <c r="H39" t="n">
-        <v>311.14</v>
+        <v>1194.89</v>
       </c>
       <c r="I39" t="n">
-        <v>326.61</v>
+        <v>1399.83</v>
       </c>
       <c r="J39" t="n">
-        <v>342.37</v>
+        <v>1464.9</v>
       </c>
       <c r="K39" t="n">
-        <v>376.84</v>
+        <v>1186.42</v>
       </c>
       <c r="L39" t="n">
-        <v>292.59</v>
+        <v>1289.31</v>
       </c>
       <c r="M39" t="n">
-        <v>286.22</v>
+        <v>1185.48</v>
       </c>
       <c r="N39" t="n">
-        <v>322.64</v>
+        <v>1449.75</v>
       </c>
       <c r="O39" t="n">
-        <v>365.66</v>
+        <v>2038.08</v>
       </c>
     </row>
     <row r="40">
@@ -37458,43 +37458,43 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>1176.63</v>
+        <v>1512.66</v>
       </c>
       <c r="D40" t="n">
-        <v>1146.05</v>
+        <v>1586.15</v>
       </c>
       <c r="E40" t="n">
-        <v>1322.2</v>
+        <v>1736.02</v>
       </c>
       <c r="F40" t="n">
-        <v>1400.95</v>
+        <v>1719.92</v>
       </c>
       <c r="G40" t="n">
-        <v>1260.86</v>
+        <v>1730.82</v>
       </c>
       <c r="H40" t="n">
-        <v>1194.89</v>
+        <v>1762.03</v>
       </c>
       <c r="I40" t="n">
-        <v>1399.83</v>
+        <v>1773.84</v>
       </c>
       <c r="J40" t="n">
-        <v>1464.9</v>
+        <v>1823.75</v>
       </c>
       <c r="K40" t="n">
-        <v>1186.42</v>
+        <v>1964.82</v>
       </c>
       <c r="L40" t="n">
-        <v>1289.31</v>
+        <v>2091.53</v>
       </c>
       <c r="M40" t="n">
-        <v>1185.48</v>
+        <v>2329.07</v>
       </c>
       <c r="N40" t="n">
-        <v>1449.75</v>
+        <v>2278.85</v>
       </c>
       <c r="O40" t="n">
-        <v>2038.08</v>
+        <v>2396.72</v>
       </c>
     </row>
     <row r="41">
@@ -37505,43 +37505,43 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>1512.66</v>
+        <v>532.75</v>
       </c>
       <c r="D41" t="n">
-        <v>1586.15</v>
+        <v>479.53</v>
       </c>
       <c r="E41" t="n">
-        <v>1736.02</v>
+        <v>489.94</v>
       </c>
       <c r="F41" t="n">
-        <v>1719.92</v>
+        <v>525.54</v>
       </c>
       <c r="G41" t="n">
-        <v>1730.82</v>
+        <v>539.74</v>
       </c>
       <c r="H41" t="n">
-        <v>1762.03</v>
+        <v>529.4</v>
       </c>
       <c r="I41" t="n">
-        <v>1773.84</v>
+        <v>545.26</v>
       </c>
       <c r="J41" t="n">
-        <v>1823.75</v>
+        <v>540.77</v>
       </c>
       <c r="K41" t="n">
-        <v>1964.82</v>
+        <v>564.98</v>
       </c>
       <c r="L41" t="n">
-        <v>2091.53</v>
+        <v>532.8</v>
       </c>
       <c r="M41" t="n">
-        <v>2329.07</v>
+        <v>589.71</v>
       </c>
       <c r="N41" t="n">
-        <v>2278.85</v>
+        <v>580.95</v>
       </c>
       <c r="O41" t="n">
-        <v>2396.72</v>
+        <v>635.32</v>
       </c>
     </row>
     <row r="42">
@@ -43708,43 +43708,43 @@
         <v>361</v>
       </c>
       <c r="C180" t="n">
-        <v>1766.86</v>
+        <v>10683.97</v>
       </c>
       <c r="D180" t="n">
-        <v>1941.31</v>
+        <v>11822.55</v>
       </c>
       <c r="E180" t="n">
-        <v>2135.99</v>
+        <v>12414.63</v>
       </c>
       <c r="F180" t="n">
-        <v>2419.26</v>
+        <v>13153.18</v>
       </c>
       <c r="G180" t="n">
-        <v>2920.92</v>
+        <v>13701.07</v>
       </c>
       <c r="H180" t="n">
-        <v>3208.71</v>
+        <v>14213.46</v>
       </c>
       <c r="I180" t="n">
-        <v>3505.21</v>
+        <v>14567.47</v>
       </c>
       <c r="J180" t="n">
-        <v>3739.15</v>
+        <v>14870.12</v>
       </c>
       <c r="K180" t="n">
-        <v>4162.63</v>
+        <v>15614.67</v>
       </c>
       <c r="L180" t="n">
-        <v>3646.53</v>
+        <v>16221.04</v>
       </c>
       <c r="M180" t="n">
-        <v>3850.17</v>
+        <v>16136.62</v>
       </c>
       <c r="N180" t="n">
-        <v>3784.84</v>
+        <v>15691.52</v>
       </c>
       <c r="O180" t="n">
-        <v>4083.09</v>
+        <v>15626.39</v>
       </c>
     </row>
     <row r="181">
@@ -43755,43 +43755,43 @@
         <v>363</v>
       </c>
       <c r="C181" t="n">
-        <v>10683.97</v>
+        <v>1766.86</v>
       </c>
       <c r="D181" t="n">
-        <v>11822.55</v>
+        <v>1941.31</v>
       </c>
       <c r="E181" t="n">
-        <v>12414.63</v>
+        <v>2135.99</v>
       </c>
       <c r="F181" t="n">
-        <v>13153.18</v>
+        <v>2419.26</v>
       </c>
       <c r="G181" t="n">
-        <v>13701.07</v>
+        <v>2920.92</v>
       </c>
       <c r="H181" t="n">
-        <v>14213.46</v>
+        <v>3208.71</v>
       </c>
       <c r="I181" t="n">
-        <v>14567.47</v>
+        <v>3505.21</v>
       </c>
       <c r="J181" t="n">
-        <v>14870.12</v>
+        <v>3739.15</v>
       </c>
       <c r="K181" t="n">
-        <v>15614.67</v>
+        <v>4162.63</v>
       </c>
       <c r="L181" t="n">
-        <v>16221.04</v>
+        <v>3646.53</v>
       </c>
       <c r="M181" t="n">
-        <v>16136.62</v>
+        <v>3850.17</v>
       </c>
       <c r="N181" t="n">
-        <v>15691.52</v>
+        <v>3784.84</v>
       </c>
       <c r="O181" t="n">
-        <v>15626.39</v>
+        <v>4083.09</v>
       </c>
     </row>
     <row r="182">
